--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H2">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I2">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J2">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>4834.584374362921</v>
+        <v>4668.165387306494</v>
       </c>
       <c r="R2">
-        <v>19338.33749745168</v>
+        <v>18672.66154922598</v>
       </c>
       <c r="S2">
-        <v>0.009584381207384569</v>
+        <v>0.01303301647152506</v>
       </c>
       <c r="T2">
-        <v>0.005210279716155104</v>
+        <v>0.007272943987830112</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H3">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I3">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J3">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>1.26154846251</v>
+        <v>1.300218959592</v>
       </c>
       <c r="R3">
-        <v>7.569290775060002</v>
+        <v>7.801313757551999</v>
       </c>
       <c r="S3">
-        <v>2.500972253251668E-06</v>
+        <v>3.630071711475786E-06</v>
       </c>
       <c r="T3">
-        <v>2.039375008124253E-06</v>
+        <v>3.038587607909388E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H4">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I4">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J4">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>1997.066510501603</v>
+        <v>1519.618941390858</v>
       </c>
       <c r="R4">
-        <v>11982.39906300962</v>
+        <v>9117.713648345147</v>
       </c>
       <c r="S4">
-        <v>0.003959109046611871</v>
+        <v>0.004242612900443106</v>
       </c>
       <c r="T4">
-        <v>0.003228387693466508</v>
+        <v>0.00355132129860926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H5">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I5">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J5">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>31.02035966709751</v>
+        <v>69.74348599995299</v>
       </c>
       <c r="R5">
-        <v>124.08143866839</v>
+        <v>278.973943999812</v>
       </c>
       <c r="S5">
-        <v>6.149669324549078E-05</v>
+        <v>0.0001947163235241402</v>
       </c>
       <c r="T5">
-        <v>3.343095046978308E-05</v>
+        <v>0.0001086594893516287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H6">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I6">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J6">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>3282.870436361618</v>
+        <v>585.1145122085159</v>
       </c>
       <c r="R6">
-        <v>19697.2226181697</v>
+        <v>3510.687073251095</v>
       </c>
       <c r="S6">
-        <v>0.006508166841268309</v>
+        <v>0.001633576885702841</v>
       </c>
       <c r="T6">
-        <v>0.005306973233121254</v>
+        <v>0.001367401769439389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H7">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I7">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J7">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>1417.098620395013</v>
+        <v>2256.669610264314</v>
       </c>
       <c r="R7">
-        <v>8502.591722370076</v>
+        <v>13540.01766158588</v>
       </c>
       <c r="S7">
-        <v>0.002809344575378174</v>
+        <v>0.006300379219926256</v>
       </c>
       <c r="T7">
-        <v>0.002290831938973599</v>
+        <v>0.005273795049909564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J8">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>174662.080711488</v>
+        <v>163633.8556697661</v>
       </c>
       <c r="R8">
-        <v>1047972.484268928</v>
+        <v>981803.1340185965</v>
       </c>
       <c r="S8">
-        <v>0.3462609884090539</v>
+        <v>0.4568481532471451</v>
       </c>
       <c r="T8">
-        <v>0.2823525951284382</v>
+        <v>0.3824092876084559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J9">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
         <v>45.576757445548</v>
@@ -1013,10 +1013,10 @@
         <v>410.190817009932</v>
       </c>
       <c r="S9">
-        <v>9.035420291164072E-05</v>
+        <v>0.0001272454125386645</v>
       </c>
       <c r="T9">
-        <v>0.0001105166818968575</v>
+        <v>0.0001597680560198003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J10">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>72149.28213749613</v>
+        <v>53267.41576139196</v>
       </c>
       <c r="R10">
-        <v>649343.5392374652</v>
+        <v>479406.7418525276</v>
       </c>
       <c r="S10">
-        <v>0.1430332310491589</v>
+        <v>0.1487169046969788</v>
       </c>
       <c r="T10">
-        <v>0.1749509993685425</v>
+        <v>0.1867274449167154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J11">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>1120.692110081943</v>
+        <v>2444.728190876619</v>
       </c>
       <c r="R11">
-        <v>6724.152660491658</v>
+        <v>14668.36914525972</v>
       </c>
       <c r="S11">
-        <v>0.00222172984633223</v>
+        <v>0.006825418582369667</v>
       </c>
       <c r="T11">
-        <v>0.001811671567936322</v>
+        <v>0.005713284466975817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J12">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>118602.332014675</v>
+        <v>20510.10101342145</v>
       </c>
       <c r="R12">
-        <v>1067420.988132075</v>
+        <v>184590.909120793</v>
       </c>
       <c r="S12">
-        <v>0.2351246506610465</v>
+        <v>0.05726199955713226</v>
       </c>
       <c r="T12">
-        <v>0.2875925566918905</v>
+        <v>0.07189758884446856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J13">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>51196.41616435502</v>
+        <v>79103.35617166369</v>
       </c>
       <c r="R13">
-        <v>460767.7454791951</v>
+        <v>711930.2055449733</v>
       </c>
       <c r="S13">
-        <v>0.1014949644013078</v>
+        <v>0.2208480759361146</v>
       </c>
       <c r="T13">
-        <v>0.12414349674294</v>
+        <v>0.2772946156884422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H14">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I14">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>148.443395444016</v>
+        <v>12.9723425009525</v>
       </c>
       <c r="R14">
-        <v>890.660372664096</v>
+        <v>77.83405500571499</v>
       </c>
       <c r="S14">
-        <v>0.0002942834335870837</v>
+        <v>3.621738723073182E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002399683878868285</v>
+        <v>3.031612397139596E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H15">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I15">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.038735188548</v>
+        <v>0.003613172257333333</v>
       </c>
       <c r="R15">
-        <v>0.348616696932</v>
+        <v>0.032518550316</v>
       </c>
       <c r="S15">
-        <v>7.67910505715129E-08</v>
+        <v>1.008758894282743E-08</v>
       </c>
       <c r="T15">
-        <v>9.392692132801726E-08</v>
+        <v>1.266587488828056E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H16">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I16">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>61.31888716606699</v>
+        <v>4.222861818962111</v>
       </c>
       <c r="R16">
-        <v>551.8699844946029</v>
+        <v>38.00575637065899</v>
       </c>
       <c r="S16">
-        <v>0.000121562381438349</v>
+        <v>1.178977672752578E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001486889442562458</v>
+        <v>1.480312469490341E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H17">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I17">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>0.9524639886930001</v>
+        <v>0.1938098401701666</v>
       </c>
       <c r="R17">
-        <v>5.714783932158</v>
+        <v>1.162859041021</v>
       </c>
       <c r="S17">
-        <v>1.888223939652038E-06</v>
+        <v>5.410962615313137E-07</v>
       </c>
       <c r="T17">
-        <v>1.539719885841046E-06</v>
+        <v>4.529300040485204E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H18">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I18">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>100.798827084389</v>
+        <v>1.625971923635333</v>
       </c>
       <c r="R18">
-        <v>907.1894437595008</v>
+        <v>14.633747312718</v>
       </c>
       <c r="S18">
-        <v>0.0001998298735165485</v>
+        <v>4.539539006179868E-06</v>
       </c>
       <c r="T18">
-        <v>0.0002444217740099438</v>
+        <v>5.699799370158305E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H19">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I19">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>43.51127513793499</v>
+        <v>6.271048402749667</v>
       </c>
       <c r="R19">
-        <v>391.601476241415</v>
+        <v>56.439435624747</v>
       </c>
       <c r="S19">
-        <v>8.625946212725218E-05</v>
+        <v>1.750809372542935E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001055082024887562</v>
+        <v>2.198298581706708E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H20">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I20">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J20">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N20">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O20">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P20">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q20">
-        <v>26208.50783606619</v>
+        <v>15355.18951849813</v>
       </c>
       <c r="R20">
-        <v>104834.0313442647</v>
+        <v>61420.75807399253</v>
       </c>
       <c r="S20">
-        <v>0.05195737844800462</v>
+        <v>0.04287004022225652</v>
       </c>
       <c r="T20">
-        <v>0.02824516984191473</v>
+        <v>0.0239231955222114</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H21">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I21">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J21">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P21">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q21">
-        <v>6.838913173302001</v>
+        <v>4.276864010510001</v>
       </c>
       <c r="R21">
-        <v>41.033479039812</v>
+        <v>25.66118406306001</v>
       </c>
       <c r="S21">
-        <v>1.355788746695892E-05</v>
+        <v>1.194054504731494E-05</v>
       </c>
       <c r="T21">
-        <v>1.105554722853405E-05</v>
+        <v>9.994951917273438E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H22">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I22">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J22">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N22">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O22">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P22">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q22">
-        <v>10826.19088564852</v>
+        <v>4998.545446655595</v>
       </c>
       <c r="R22">
-        <v>64957.14531389112</v>
+        <v>29991.27267993357</v>
       </c>
       <c r="S22">
-        <v>0.02146251516928817</v>
+        <v>0.01395540211944331</v>
       </c>
       <c r="T22">
-        <v>0.017501240563875</v>
+        <v>0.01168150805657044</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H23">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I23">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J23">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N23">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O23">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P23">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q23">
-        <v>168.1628194812195</v>
+        <v>229.4101336088088</v>
       </c>
       <c r="R23">
-        <v>672.6512779248781</v>
+        <v>917.6405344352351</v>
       </c>
       <c r="S23">
-        <v>0.0003333764481107005</v>
+        <v>0.0006404884578829218</v>
       </c>
       <c r="T23">
-        <v>0.0001812307448807135</v>
+        <v>0.000357418153288737</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H24">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I24">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J24">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N24">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O24">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P24">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q24">
-        <v>17796.59405934172</v>
+        <v>1924.641369694355</v>
       </c>
       <c r="R24">
-        <v>106779.5643560503</v>
+        <v>11547.84821816613</v>
       </c>
       <c r="S24">
-        <v>0.03528107660346366</v>
+        <v>0.005373392027028918</v>
       </c>
       <c r="T24">
-        <v>0.02876934991632662</v>
+        <v>0.004497851206121576</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H25">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I25">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J25">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N25">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O25">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P25">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q25">
-        <v>7682.157848780002</v>
+        <v>7422.956701677109</v>
       </c>
       <c r="R25">
-        <v>46092.94709268001</v>
+        <v>44537.74021006265</v>
       </c>
       <c r="S25">
-        <v>0.01522958823688155</v>
+        <v>0.02072409799863487</v>
       </c>
       <c r="T25">
-        <v>0.01241870700242189</v>
+        <v>0.01734731222104445</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H26">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I26">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J26">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N26">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O26">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P26">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q26">
-        <v>4781.147618675446</v>
+        <v>25.0872236541775</v>
       </c>
       <c r="R26">
-        <v>28686.88571205268</v>
+        <v>150.523341925065</v>
       </c>
       <c r="S26">
-        <v>0.00947844485436309</v>
+        <v>7.004083445689224E-05</v>
       </c>
       <c r="T26">
-        <v>0.007729035588755432</v>
+        <v>5.862837666692338E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H27">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I27">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J27">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P27">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q27">
-        <v>1.247604542669334</v>
+        <v>0.006987516750666667</v>
       </c>
       <c r="R27">
-        <v>11.228440884024</v>
+        <v>0.062887650756</v>
       </c>
       <c r="S27">
-        <v>2.473328958000301E-06</v>
+        <v>1.950839641502974E-08</v>
       </c>
       <c r="T27">
-        <v>3.025250634382931E-06</v>
+        <v>2.449454569017074E-08</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H28">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I28">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J28">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N28">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O28">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P28">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q28">
-        <v>1974.992895284705</v>
+        <v>8.166595886996555</v>
       </c>
       <c r="R28">
-        <v>17774.93605756234</v>
+        <v>73.49936298296899</v>
       </c>
       <c r="S28">
-        <v>0.003915348936852333</v>
+        <v>2.280025874852895E-05</v>
       </c>
       <c r="T28">
-        <v>0.004789056391681812</v>
+        <v>2.862777481973297E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H29">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I29">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J29">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N29">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O29">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P29">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q29">
-        <v>30.677491024726</v>
+        <v>0.3748090066518333</v>
       </c>
       <c r="R29">
-        <v>184.064946148356</v>
+        <v>2.248854039911</v>
       </c>
       <c r="S29">
-        <v>6.081696909175112E-05</v>
+        <v>1.046426497795496E-06</v>
       </c>
       <c r="T29">
-        <v>4.959215628015269E-05</v>
+        <v>8.759217011436782E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H30">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I30">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J30">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N30">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O30">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P30">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q30">
-        <v>3246.584805193042</v>
+        <v>3.144468418148666</v>
       </c>
       <c r="R30">
-        <v>29219.26324673738</v>
+        <v>28.300215763338</v>
       </c>
       <c r="S30">
-        <v>0.006436231945827374</v>
+        <v>8.779018155474618E-06</v>
       </c>
       <c r="T30">
-        <v>0.007872472731202134</v>
+        <v>1.102284661175129E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H31">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I31">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J31">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N31">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O31">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P31">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q31">
-        <v>1401.435401615614</v>
+        <v>12.12758557788633</v>
       </c>
       <c r="R31">
-        <v>12612.91861454053</v>
+        <v>109.148270200977</v>
       </c>
       <c r="S31">
-        <v>0.002778292834816464</v>
+        <v>3.385891661555323E-05</v>
       </c>
       <c r="T31">
-        <v>0.003398266993091599</v>
+        <v>4.251291405071059E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H32">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I32">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J32">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N32">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O32">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P32">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q32">
-        <v>252.2377809542134</v>
+        <v>33.39422461218999</v>
       </c>
       <c r="R32">
-        <v>1513.42668572528</v>
+        <v>200.36534767314</v>
       </c>
       <c r="S32">
-        <v>0.0005000518887186699</v>
+        <v>9.323308908633241E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004077587519382869</v>
+        <v>7.804168392851633E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H33">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I33">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J33">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.184044</v>
       </c>
       <c r="O33">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P33">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q33">
-        <v>0.06581955347333335</v>
+        <v>0.009301256570666666</v>
       </c>
       <c r="R33">
-        <v>0.59237598126</v>
+        <v>0.083711309136</v>
       </c>
       <c r="S33">
-        <v>1.304847826699454E-07</v>
+        <v>2.596810953206707E-08</v>
       </c>
       <c r="T33">
-        <v>1.596023732600164E-07</v>
+        <v>3.26052962984967E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H34">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I34">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J34">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N34">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O34">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P34">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q34">
-        <v>104.1941945822961</v>
+        <v>10.87075800521822</v>
       </c>
       <c r="R34">
-        <v>937.7477512406649</v>
+        <v>97.83682204696399</v>
       </c>
       <c r="S34">
-        <v>0.0002065610615400058</v>
+        <v>3.034998899679513E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002526550220670802</v>
+        <v>3.810713993926416E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H35">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I35">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J35">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N35">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O35">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P35">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q35">
-        <v>1.618444540615</v>
+        <v>0.4989175497193333</v>
       </c>
       <c r="R35">
-        <v>9.710667243690001</v>
+        <v>2.993505298316</v>
       </c>
       <c r="S35">
-        <v>3.208505269350818E-06</v>
+        <v>1.392924222673448E-06</v>
       </c>
       <c r="T35">
-        <v>2.616320693378995E-06</v>
+        <v>1.165961065835707E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H36">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I36">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J36">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N36">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O36">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P36">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q36">
-        <v>171.2792434483394</v>
+        <v>4.185679774258666</v>
       </c>
       <c r="R36">
-        <v>1541.513191035055</v>
+        <v>37.67111796832799</v>
       </c>
       <c r="S36">
-        <v>0.0003395546411034834</v>
+        <v>1.168596845149883E-05</v>
       </c>
       <c r="T36">
-        <v>0.0004153260285427254</v>
+        <v>1.467278407099641E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H37">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I37">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J37">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N37">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O37">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P37">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q37">
-        <v>73.93516871836945</v>
+        <v>16.14332946420133</v>
       </c>
       <c r="R37">
-        <v>665.416518465325</v>
+        <v>145.289965177812</v>
       </c>
       <c r="S37">
-        <v>0.000146573683848992</v>
+        <v>4.507044231643843E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001792815018049663</v>
+        <v>5.65899925913784E-05</v>
       </c>
     </row>
   </sheetData>
